--- a/2023年度市场交易量.xlsx
+++ b/2023年度市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6144,6 +6144,29 @@
         <v>78087344.17</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="20" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>39357100</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>13954800</v>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>49255500</v>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>2883900</v>
+      </c>
+      <c r="F242" s="2" t="n">
+        <v>1819341.71</v>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>107270641.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/2023年度市场交易量.xlsx
+++ b/2023年度市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6167,6 +6167,29 @@
         <v>107270641.71</v>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" s="20" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>34963900</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>11333000</v>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>47415000</v>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>2366000</v>
+      </c>
+      <c r="F243" s="2" t="n">
+        <v>1889565.24</v>
+      </c>
+      <c r="G243" s="2" t="n">
+        <v>97967465.23999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/2023年度市场交易量.xlsx
+++ b/2023年度市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6190,6 +6190,29 @@
         <v>97967465.23999999</v>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="20" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>34963900</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>11333000</v>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>47415000</v>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>2366000</v>
+      </c>
+      <c r="F244" s="2" t="n">
+        <v>1889565.24</v>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>97967465.23999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
